--- a/Team-Data/2014-15/3-22-2014-15.xlsx
+++ b/Team-Data/2014-15/3-22-2014-15.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,16 +733,16 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E2" t="n">
         <v>53</v>
       </c>
       <c r="F2" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G2" t="n">
-        <v>0.757</v>
+        <v>0.768</v>
       </c>
       <c r="H2" t="n">
         <v>48.1</v>
@@ -693,37 +760,37 @@
         <v>10</v>
       </c>
       <c r="M2" t="n">
-        <v>25.9</v>
+        <v>26</v>
       </c>
       <c r="N2" t="n">
-        <v>0.386</v>
+        <v>0.384</v>
       </c>
       <c r="O2" t="n">
-        <v>17</v>
+        <v>17.1</v>
       </c>
       <c r="P2" t="n">
-        <v>21.8</v>
+        <v>22</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.779</v>
+        <v>0.778</v>
       </c>
       <c r="R2" t="n">
-        <v>8.6</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="S2" t="n">
-        <v>31.8</v>
+        <v>32</v>
       </c>
       <c r="T2" t="n">
-        <v>40.5</v>
+        <v>40.6</v>
       </c>
       <c r="U2" t="n">
         <v>25.4</v>
       </c>
       <c r="V2" t="n">
-        <v>14.4</v>
+        <v>14.3</v>
       </c>
       <c r="W2" t="n">
-        <v>9</v>
+        <v>8.9</v>
       </c>
       <c r="X2" t="n">
         <v>4.7</v>
@@ -732,19 +799,19 @@
         <v>4.9</v>
       </c>
       <c r="Z2" t="n">
-        <v>17.8</v>
+        <v>17.9</v>
       </c>
       <c r="AA2" t="n">
-        <v>20.2</v>
+        <v>20.3</v>
       </c>
       <c r="AB2" t="n">
-        <v>102.6</v>
+        <v>102.7</v>
       </c>
       <c r="AC2" t="n">
-        <v>5.2</v>
+        <v>5.6</v>
       </c>
       <c r="AD2" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AE2" t="n">
         <v>2</v>
@@ -756,10 +823,10 @@
         <v>2</v>
       </c>
       <c r="AH2" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AI2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AJ2" t="n">
         <v>27</v>
@@ -768,7 +835,7 @@
         <v>4</v>
       </c>
       <c r="AL2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AM2" t="n">
         <v>7</v>
@@ -780,7 +847,7 @@
         <v>15</v>
       </c>
       <c r="AP2" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AQ2" t="n">
         <v>4</v>
@@ -789,22 +856,22 @@
         <v>30</v>
       </c>
       <c r="AS2" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AT2" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AU2" t="n">
         <v>2</v>
       </c>
       <c r="AV2" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AW2" t="n">
         <v>5</v>
       </c>
       <c r="AX2" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AY2" t="n">
         <v>17</v>
@@ -813,7 +880,7 @@
         <v>1</v>
       </c>
       <c r="BA2" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BB2" t="n">
         <v>9</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>3-22-2014-15</t>
+          <t>2015-03-22</t>
         </is>
       </c>
     </row>
@@ -848,55 +915,55 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E3" t="n">
         <v>30</v>
       </c>
       <c r="F3" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G3" t="n">
-        <v>0.435</v>
+        <v>0.441</v>
       </c>
       <c r="H3" t="n">
-        <v>48.5</v>
+        <v>48.4</v>
       </c>
       <c r="I3" t="n">
-        <v>38.8</v>
+        <v>38.9</v>
       </c>
       <c r="J3" t="n">
-        <v>88.3</v>
+        <v>88.09999999999999</v>
       </c>
       <c r="K3" t="n">
-        <v>0.44</v>
+        <v>0.441</v>
       </c>
       <c r="L3" t="n">
         <v>8.1</v>
       </c>
       <c r="M3" t="n">
-        <v>24.6</v>
+        <v>24.5</v>
       </c>
       <c r="N3" t="n">
-        <v>0.331</v>
+        <v>0.332</v>
       </c>
       <c r="O3" t="n">
-        <v>14.9</v>
+        <v>15</v>
       </c>
       <c r="P3" t="n">
-        <v>19.9</v>
+        <v>20</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.749</v>
+        <v>0.748</v>
       </c>
       <c r="R3" t="n">
-        <v>11.3</v>
+        <v>11.2</v>
       </c>
       <c r="S3" t="n">
-        <v>32.8</v>
+        <v>32.6</v>
       </c>
       <c r="T3" t="n">
-        <v>44.1</v>
+        <v>43.9</v>
       </c>
       <c r="U3" t="n">
         <v>24.3</v>
@@ -908,37 +975,37 @@
         <v>8</v>
       </c>
       <c r="X3" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="Y3" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="Z3" t="n">
         <v>21.1</v>
       </c>
       <c r="AA3" t="n">
-        <v>18.5</v>
+        <v>18.4</v>
       </c>
       <c r="AB3" t="n">
-        <v>100.7</v>
+        <v>100.8</v>
       </c>
       <c r="AC3" t="n">
-        <v>-1</v>
+        <v>-0.9</v>
       </c>
       <c r="AD3" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="AE3" t="n">
         <v>19</v>
       </c>
       <c r="AF3" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AG3" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AH3" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AI3" t="n">
         <v>5</v>
@@ -947,10 +1014,10 @@
         <v>1</v>
       </c>
       <c r="AK3" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AL3" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AM3" t="n">
         <v>12</v>
@@ -971,10 +1038,10 @@
         <v>11</v>
       </c>
       <c r="AS3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AT3" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AU3" t="n">
         <v>4</v>
@@ -986,13 +1053,13 @@
         <v>11</v>
       </c>
       <c r="AX3" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AY3" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AZ3" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BA3" t="n">
         <v>29</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>3-22-2014-15</t>
+          <t>2015-03-22</t>
         </is>
       </c>
     </row>
@@ -1108,13 +1175,13 @@
         <v>-3.3</v>
       </c>
       <c r="AD4" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AE4" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AF4" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AG4" t="n">
         <v>22</v>
@@ -1147,19 +1214,19 @@
         <v>17</v>
       </c>
       <c r="AQ4" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AR4" t="n">
         <v>23</v>
       </c>
       <c r="AS4" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AT4" t="n">
         <v>23</v>
       </c>
       <c r="AU4" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AV4" t="n">
         <v>16</v>
@@ -1171,13 +1238,13 @@
         <v>25</v>
       </c>
       <c r="AY4" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AZ4" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BA4" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="BB4" t="n">
         <v>23</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>3-22-2014-15</t>
+          <t>2015-03-22</t>
         </is>
       </c>
     </row>
@@ -1212,28 +1279,28 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E5" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F5" t="n">
         <v>38</v>
       </c>
       <c r="G5" t="n">
-        <v>0.441</v>
+        <v>0.433</v>
       </c>
       <c r="H5" t="n">
         <v>48.5</v>
       </c>
       <c r="I5" t="n">
-        <v>35.9</v>
+        <v>35.8</v>
       </c>
       <c r="J5" t="n">
-        <v>84.5</v>
+        <v>84.40000000000001</v>
       </c>
       <c r="K5" t="n">
-        <v>0.425</v>
+        <v>0.424</v>
       </c>
       <c r="L5" t="n">
         <v>5.8</v>
@@ -1248,13 +1315,13 @@
         <v>17.2</v>
       </c>
       <c r="P5" t="n">
-        <v>23</v>
+        <v>23.1</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.746</v>
+        <v>0.745</v>
       </c>
       <c r="R5" t="n">
-        <v>10</v>
+        <v>9.9</v>
       </c>
       <c r="S5" t="n">
         <v>34</v>
@@ -1266,40 +1333,40 @@
         <v>20.5</v>
       </c>
       <c r="V5" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="W5" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="X5" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="Y5" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="Z5" t="n">
         <v>18.5</v>
       </c>
       <c r="AA5" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>94.59999999999999</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>-2.4</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>29</v>
+      </c>
+      <c r="AE5" t="n">
         <v>21</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>94.8</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>-2.2</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>25</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>19</v>
       </c>
       <c r="AF5" t="n">
         <v>18</v>
       </c>
       <c r="AG5" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AH5" t="n">
         <v>8</v>
@@ -1317,7 +1384,7 @@
         <v>27</v>
       </c>
       <c r="AM5" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AN5" t="n">
         <v>30</v>
@@ -1326,7 +1393,7 @@
         <v>13</v>
       </c>
       <c r="AP5" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AQ5" t="n">
         <v>19</v>
@@ -1335,10 +1402,10 @@
         <v>25</v>
       </c>
       <c r="AS5" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AT5" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AU5" t="n">
         <v>25</v>
@@ -1362,7 +1429,7 @@
         <v>6</v>
       </c>
       <c r="BB5" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BC5" t="n">
         <v>22</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>3-22-2014-15</t>
+          <t>2015-03-22</t>
         </is>
       </c>
     </row>
@@ -1472,7 +1539,7 @@
         <v>2</v>
       </c>
       <c r="AD6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE6" t="n">
         <v>10</v>
@@ -1484,16 +1551,16 @@
         <v>11</v>
       </c>
       <c r="AH6" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AI6" t="n">
         <v>23</v>
       </c>
       <c r="AJ6" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AK6" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AL6" t="n">
         <v>14</v>
@@ -1511,19 +1578,19 @@
         <v>3</v>
       </c>
       <c r="AQ6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AR6" t="n">
         <v>5</v>
       </c>
       <c r="AS6" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AT6" t="n">
         <v>3</v>
       </c>
       <c r="AU6" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AV6" t="n">
         <v>14</v>
@@ -1532,7 +1599,7 @@
         <v>29</v>
       </c>
       <c r="AX6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AY6" t="n">
         <v>23</v>
@@ -1541,7 +1608,7 @@
         <v>3</v>
       </c>
       <c r="BA6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BB6" t="n">
         <v>13</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>3-22-2014-15</t>
+          <t>2015-03-22</t>
         </is>
       </c>
     </row>
@@ -1576,16 +1643,16 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E7" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F7" t="n">
         <v>26</v>
       </c>
       <c r="G7" t="n">
-        <v>0.639</v>
+        <v>0.634</v>
       </c>
       <c r="H7" t="n">
         <v>48.2</v>
@@ -1597,25 +1664,25 @@
         <v>82.2</v>
       </c>
       <c r="K7" t="n">
-        <v>0.459</v>
+        <v>0.458</v>
       </c>
       <c r="L7" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="M7" t="n">
-        <v>27</v>
+        <v>26.9</v>
       </c>
       <c r="N7" t="n">
-        <v>0.365</v>
+        <v>0.364</v>
       </c>
       <c r="O7" t="n">
-        <v>18.3</v>
+        <v>18.4</v>
       </c>
       <c r="P7" t="n">
-        <v>24.1</v>
+        <v>24.2</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.756</v>
+        <v>0.757</v>
       </c>
       <c r="R7" t="n">
         <v>11.1</v>
@@ -1624,7 +1691,7 @@
         <v>31.7</v>
       </c>
       <c r="T7" t="n">
-        <v>42.8</v>
+        <v>42.9</v>
       </c>
       <c r="U7" t="n">
         <v>21.9</v>
@@ -1633,31 +1700,31 @@
         <v>13.9</v>
       </c>
       <c r="W7" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="X7" t="n">
         <v>4.1</v>
       </c>
       <c r="Y7" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="Z7" t="n">
-        <v>18.5</v>
+        <v>18.6</v>
       </c>
       <c r="AA7" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="AB7" t="n">
         <v>103.5</v>
       </c>
       <c r="AC7" t="n">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="AD7" t="n">
         <v>1</v>
       </c>
       <c r="AE7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AF7" t="n">
         <v>8</v>
@@ -1666,22 +1733,22 @@
         <v>7</v>
       </c>
       <c r="AH7" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AI7" t="n">
         <v>14</v>
       </c>
       <c r="AJ7" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AK7" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AL7" t="n">
         <v>6</v>
       </c>
       <c r="AM7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AN7" t="n">
         <v>6</v>
@@ -1708,16 +1775,16 @@
         <v>11</v>
       </c>
       <c r="AV7" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AW7" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AX7" t="n">
         <v>26</v>
       </c>
       <c r="AY7" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AZ7" t="n">
         <v>5</v>
@@ -1729,7 +1796,7 @@
         <v>6</v>
       </c>
       <c r="BC7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BD7" t="n">
         <v>10</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>3-22-2014-15</t>
+          <t>2015-03-22</t>
         </is>
       </c>
     </row>
@@ -1776,19 +1843,19 @@
         <v>39.4</v>
       </c>
       <c r="J8" t="n">
-        <v>85.59999999999999</v>
+        <v>85.3</v>
       </c>
       <c r="K8" t="n">
-        <v>0.46</v>
+        <v>0.462</v>
       </c>
       <c r="L8" t="n">
         <v>9.300000000000001</v>
       </c>
       <c r="M8" t="n">
-        <v>26.2</v>
+        <v>26.3</v>
       </c>
       <c r="N8" t="n">
-        <v>0.353</v>
+        <v>0.355</v>
       </c>
       <c r="O8" t="n">
         <v>16.7</v>
@@ -1797,28 +1864,28 @@
         <v>22.1</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.753</v>
+        <v>0.756</v>
       </c>
       <c r="R8" t="n">
-        <v>10.5</v>
+        <v>10.4</v>
       </c>
       <c r="S8" t="n">
-        <v>31.6</v>
+        <v>31.5</v>
       </c>
       <c r="T8" t="n">
-        <v>42.1</v>
+        <v>42</v>
       </c>
       <c r="U8" t="n">
         <v>22.5</v>
       </c>
       <c r="V8" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="W8" t="n">
         <v>8.300000000000001</v>
       </c>
       <c r="X8" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="Y8" t="n">
         <v>3.8</v>
@@ -1827,16 +1894,16 @@
         <v>19.8</v>
       </c>
       <c r="AA8" t="n">
-        <v>22</v>
+        <v>21.9</v>
       </c>
       <c r="AB8" t="n">
-        <v>104.7</v>
+        <v>104.8</v>
       </c>
       <c r="AC8" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="AD8" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AE8" t="n">
         <v>7</v>
@@ -1848,7 +1915,7 @@
         <v>9</v>
       </c>
       <c r="AH8" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AI8" t="n">
         <v>2</v>
@@ -1857,7 +1924,7 @@
         <v>9</v>
       </c>
       <c r="AK8" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AL8" t="n">
         <v>7</v>
@@ -1872,16 +1939,16 @@
         <v>18</v>
       </c>
       <c r="AP8" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AQ8" t="n">
         <v>17</v>
       </c>
       <c r="AR8" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AS8" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AT8" t="n">
         <v>24</v>
@@ -1890,10 +1957,10 @@
         <v>8</v>
       </c>
       <c r="AV8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AW8" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AX8" t="n">
         <v>16</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>3-22-2014-15</t>
+          <t>2015-03-22</t>
         </is>
       </c>
     </row>
@@ -1940,16 +2007,16 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E9" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F9" t="n">
         <v>44</v>
       </c>
       <c r="G9" t="n">
-        <v>0.38</v>
+        <v>0.371</v>
       </c>
       <c r="H9" t="n">
         <v>48.4</v>
@@ -1958,7 +2025,7 @@
         <v>37.4</v>
       </c>
       <c r="J9" t="n">
-        <v>86.8</v>
+        <v>86.7</v>
       </c>
       <c r="K9" t="n">
         <v>0.431</v>
@@ -1970,7 +2037,7 @@
         <v>24.4</v>
       </c>
       <c r="N9" t="n">
-        <v>0.321</v>
+        <v>0.319</v>
       </c>
       <c r="O9" t="n">
         <v>17.7</v>
@@ -1982,16 +2049,16 @@
         <v>0.729</v>
       </c>
       <c r="R9" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="S9" t="n">
         <v>32.6</v>
       </c>
       <c r="T9" t="n">
-        <v>44.7</v>
+        <v>44.6</v>
       </c>
       <c r="U9" t="n">
-        <v>21.7</v>
+        <v>21.6</v>
       </c>
       <c r="V9" t="n">
         <v>14.1</v>
@@ -2003,22 +2070,22 @@
         <v>4.7</v>
       </c>
       <c r="Y9" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="Z9" t="n">
         <v>22.8</v>
       </c>
       <c r="AA9" t="n">
-        <v>20.8</v>
+        <v>20.7</v>
       </c>
       <c r="AB9" t="n">
-        <v>100.5</v>
+        <v>100.2</v>
       </c>
       <c r="AC9" t="n">
-        <v>-3.4</v>
+        <v>-3.7</v>
       </c>
       <c r="AD9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AE9" t="n">
         <v>23</v>
@@ -2030,7 +2097,7 @@
         <v>23</v>
       </c>
       <c r="AH9" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AI9" t="n">
         <v>17</v>
@@ -2051,34 +2118,34 @@
         <v>28</v>
       </c>
       <c r="AO9" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AP9" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AQ9" t="n">
         <v>24</v>
       </c>
       <c r="AR9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AS9" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AT9" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AU9" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AV9" t="n">
         <v>15</v>
       </c>
       <c r="AW9" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AX9" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AY9" t="n">
         <v>30</v>
@@ -2087,7 +2154,7 @@
         <v>30</v>
       </c>
       <c r="BA9" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BB9" t="n">
         <v>15</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>3-22-2014-15</t>
+          <t>2015-03-22</t>
         </is>
       </c>
     </row>
@@ -2122,22 +2189,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E10" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F10" t="n">
         <v>44</v>
       </c>
       <c r="G10" t="n">
-        <v>0.371</v>
+        <v>0.362</v>
       </c>
       <c r="H10" t="n">
         <v>48.4</v>
       </c>
       <c r="I10" t="n">
-        <v>36.8</v>
+        <v>36.7</v>
       </c>
       <c r="J10" t="n">
         <v>86.2</v>
@@ -2152,25 +2219,25 @@
         <v>25.1</v>
       </c>
       <c r="N10" t="n">
-        <v>0.336</v>
+        <v>0.335</v>
       </c>
       <c r="O10" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="P10" t="n">
-        <v>22.7</v>
+        <v>22.6</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.707</v>
+        <v>0.709</v>
       </c>
       <c r="R10" t="n">
         <v>13</v>
       </c>
       <c r="S10" t="n">
-        <v>32.5</v>
+        <v>32.3</v>
       </c>
       <c r="T10" t="n">
-        <v>45.4</v>
+        <v>45.3</v>
       </c>
       <c r="U10" t="n">
         <v>21.2</v>
@@ -2179,10 +2246,10 @@
         <v>13.5</v>
       </c>
       <c r="W10" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="X10" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="Y10" t="n">
         <v>5</v>
@@ -2194,13 +2261,13 @@
         <v>19.6</v>
       </c>
       <c r="AB10" t="n">
-        <v>98</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="AC10" t="n">
-        <v>-1.6</v>
+        <v>-1.7</v>
       </c>
       <c r="AD10" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AE10" t="n">
         <v>24</v>
@@ -2212,13 +2279,13 @@
         <v>24</v>
       </c>
       <c r="AH10" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="AI10" t="n">
         <v>21</v>
       </c>
       <c r="AJ10" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AK10" t="n">
         <v>28</v>
@@ -2245,7 +2312,7 @@
         <v>1</v>
       </c>
       <c r="AS10" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AT10" t="n">
         <v>4</v>
@@ -2260,7 +2327,7 @@
         <v>15</v>
       </c>
       <c r="AX10" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AY10" t="n">
         <v>18</v>
@@ -2269,7 +2336,7 @@
         <v>8</v>
       </c>
       <c r="BA10" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BB10" t="n">
         <v>20</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>3-22-2014-15</t>
+          <t>2015-03-22</t>
         </is>
       </c>
     </row>
@@ -2382,7 +2449,7 @@
         <v>10.4</v>
       </c>
       <c r="AD11" t="n">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="AE11" t="n">
         <v>1</v>
@@ -2394,7 +2461,7 @@
         <v>1</v>
       </c>
       <c r="AH11" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AI11" t="n">
         <v>1</v>
@@ -2409,7 +2476,7 @@
         <v>2</v>
       </c>
       <c r="AM11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AN11" t="n">
         <v>1</v>
@@ -2418,7 +2485,7 @@
         <v>22</v>
       </c>
       <c r="AP11" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AQ11" t="n">
         <v>8</v>
@@ -2430,7 +2497,7 @@
         <v>4</v>
       </c>
       <c r="AT11" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AU11" t="n">
         <v>1</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>3-22-2014-15</t>
+          <t>2015-03-22</t>
         </is>
       </c>
     </row>
@@ -2486,16 +2553,16 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E12" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F12" t="n">
         <v>23</v>
       </c>
       <c r="G12" t="n">
-        <v>0.662</v>
+        <v>0.667</v>
       </c>
       <c r="H12" t="n">
         <v>48.4</v>
@@ -2504,7 +2571,7 @@
         <v>37</v>
       </c>
       <c r="J12" t="n">
-        <v>84.3</v>
+        <v>84.2</v>
       </c>
       <c r="K12" t="n">
         <v>0.439</v>
@@ -2516,58 +2583,58 @@
         <v>33.4</v>
       </c>
       <c r="N12" t="n">
-        <v>0.343</v>
+        <v>0.344</v>
       </c>
       <c r="O12" t="n">
-        <v>17.6</v>
+        <v>17.9</v>
       </c>
       <c r="P12" t="n">
-        <v>24.4</v>
+        <v>24.8</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.722</v>
+        <v>0.721</v>
       </c>
       <c r="R12" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="S12" t="n">
         <v>31.8</v>
       </c>
       <c r="T12" t="n">
-        <v>43.6</v>
+        <v>43.7</v>
       </c>
       <c r="U12" t="n">
         <v>22.2</v>
       </c>
       <c r="V12" t="n">
-        <v>16.8</v>
+        <v>16.7</v>
       </c>
       <c r="W12" t="n">
         <v>9.5</v>
       </c>
       <c r="X12" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="Y12" t="n">
         <v>5.4</v>
       </c>
       <c r="Z12" t="n">
-        <v>22</v>
+        <v>22.1</v>
       </c>
       <c r="AA12" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="AB12" t="n">
-        <v>103.2</v>
+        <v>103.3</v>
       </c>
       <c r="AC12" t="n">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="AD12" t="n">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="AE12" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AF12" t="n">
         <v>4</v>
@@ -2576,13 +2643,13 @@
         <v>4</v>
       </c>
       <c r="AH12" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AI12" t="n">
         <v>20</v>
       </c>
       <c r="AJ12" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK12" t="n">
         <v>22</v>
@@ -2594,13 +2661,13 @@
         <v>1</v>
       </c>
       <c r="AN12" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AO12" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AP12" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AQ12" t="n">
         <v>27</v>
@@ -2612,13 +2679,13 @@
         <v>21</v>
       </c>
       <c r="AT12" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AU12" t="n">
         <v>9</v>
       </c>
       <c r="AV12" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AW12" t="n">
         <v>3</v>
@@ -2633,13 +2700,13 @@
         <v>27</v>
       </c>
       <c r="BA12" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="BB12" t="n">
         <v>8</v>
       </c>
       <c r="BC12" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="BD12" t="n">
         <v>10</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>3-22-2014-15</t>
+          <t>2015-03-22</t>
         </is>
       </c>
     </row>
@@ -2746,31 +2813,31 @@
         <v>-0.3</v>
       </c>
       <c r="AD13" t="n">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="AE13" t="n">
         <v>19</v>
       </c>
       <c r="AF13" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AG13" t="n">
         <v>20</v>
       </c>
       <c r="AH13" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AI13" t="n">
         <v>24</v>
       </c>
       <c r="AJ13" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AK13" t="n">
         <v>23</v>
       </c>
       <c r="AL13" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AM13" t="n">
         <v>18</v>
@@ -2800,19 +2867,19 @@
         <v>17</v>
       </c>
       <c r="AV13" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AW13" t="n">
         <v>28</v>
       </c>
       <c r="AX13" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AY13" t="n">
         <v>16</v>
       </c>
       <c r="AZ13" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BA13" t="n">
         <v>7</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>3-22-2014-15</t>
+          <t>2015-03-22</t>
         </is>
       </c>
     </row>
@@ -2850,16 +2917,16 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E14" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F14" t="n">
         <v>25</v>
       </c>
       <c r="G14" t="n">
-        <v>0.648</v>
+        <v>0.643</v>
       </c>
       <c r="H14" t="n">
         <v>48.1</v>
@@ -2868,7 +2935,7 @@
         <v>39.3</v>
       </c>
       <c r="J14" t="n">
-        <v>83.5</v>
+        <v>83.40000000000001</v>
       </c>
       <c r="K14" t="n">
         <v>0.471</v>
@@ -2877,10 +2944,10 @@
         <v>10</v>
       </c>
       <c r="M14" t="n">
-        <v>26.6</v>
+        <v>26.7</v>
       </c>
       <c r="N14" t="n">
-        <v>0.374</v>
+        <v>0.375</v>
       </c>
       <c r="O14" t="n">
         <v>17.6</v>
@@ -2895,7 +2962,7 @@
         <v>9.5</v>
       </c>
       <c r="S14" t="n">
-        <v>32.7</v>
+        <v>32.8</v>
       </c>
       <c r="T14" t="n">
         <v>42.2</v>
@@ -2913,7 +2980,7 @@
         <v>4.9</v>
       </c>
       <c r="Y14" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="Z14" t="n">
         <v>21.4</v>
@@ -2928,16 +2995,16 @@
         <v>5.6</v>
       </c>
       <c r="AD14" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AE14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AF14" t="n">
         <v>6</v>
       </c>
       <c r="AG14" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AH14" t="n">
         <v>29</v>
@@ -2946,13 +3013,13 @@
         <v>4</v>
       </c>
       <c r="AJ14" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AK14" t="n">
         <v>2</v>
       </c>
       <c r="AL14" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AM14" t="n">
         <v>5</v>
@@ -2964,7 +3031,7 @@
         <v>11</v>
       </c>
       <c r="AP14" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AQ14" t="n">
         <v>28</v>
@@ -2973,7 +3040,7 @@
         <v>28</v>
       </c>
       <c r="AS14" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AT14" t="n">
         <v>21</v>
@@ -2988,7 +3055,7 @@
         <v>14</v>
       </c>
       <c r="AX14" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AY14" t="n">
         <v>1</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>3-22-2014-15</t>
+          <t>2015-03-22</t>
         </is>
       </c>
     </row>
@@ -3035,28 +3102,28 @@
         <v>67</v>
       </c>
       <c r="E15" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F15" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G15" t="n">
-        <v>0.269</v>
+        <v>0.254</v>
       </c>
       <c r="H15" t="n">
         <v>48.6</v>
       </c>
       <c r="I15" t="n">
-        <v>37.5</v>
+        <v>37.3</v>
       </c>
       <c r="J15" t="n">
         <v>85.90000000000001</v>
       </c>
       <c r="K15" t="n">
-        <v>0.437</v>
+        <v>0.435</v>
       </c>
       <c r="L15" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="M15" t="n">
         <v>18.8</v>
@@ -3065,22 +3132,22 @@
         <v>0.344</v>
       </c>
       <c r="O15" t="n">
-        <v>17.3</v>
+        <v>17.5</v>
       </c>
       <c r="P15" t="n">
-        <v>23.3</v>
+        <v>23.6</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.742</v>
+        <v>0.743</v>
       </c>
       <c r="R15" t="n">
         <v>11.6</v>
       </c>
       <c r="S15" t="n">
-        <v>32.7</v>
+        <v>32.5</v>
       </c>
       <c r="T15" t="n">
-        <v>44.4</v>
+        <v>44.1</v>
       </c>
       <c r="U15" t="n">
         <v>20.9</v>
@@ -3092,31 +3159,31 @@
         <v>7.3</v>
       </c>
       <c r="X15" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="Y15" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="Z15" t="n">
-        <v>21.3</v>
+        <v>21.4</v>
       </c>
       <c r="AA15" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="AB15" t="n">
-        <v>98.8</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="AC15" t="n">
-        <v>-5.6</v>
+        <v>-6.1</v>
       </c>
       <c r="AD15" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AE15" t="n">
         <v>27</v>
       </c>
       <c r="AF15" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AG15" t="n">
         <v>27</v>
@@ -3125,7 +3192,7 @@
         <v>5</v>
       </c>
       <c r="AI15" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AJ15" t="n">
         <v>7</v>
@@ -3146,19 +3213,19 @@
         <v>12</v>
       </c>
       <c r="AP15" t="n">
+        <v>12</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>23</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>10</v>
+      </c>
+      <c r="AS15" t="n">
         <v>13</v>
       </c>
-      <c r="AQ15" t="n">
-        <v>22</v>
-      </c>
-      <c r="AR15" t="n">
+      <c r="AT15" t="n">
         <v>9</v>
-      </c>
-      <c r="AS15" t="n">
-        <v>11</v>
-      </c>
-      <c r="AT15" t="n">
-        <v>8</v>
       </c>
       <c r="AU15" t="n">
         <v>20</v>
@@ -3167,25 +3234,25 @@
         <v>5</v>
       </c>
       <c r="AW15" t="n">
+        <v>18</v>
+      </c>
+      <c r="AX15" t="n">
         <v>21</v>
-      </c>
-      <c r="AX15" t="n">
-        <v>19</v>
       </c>
       <c r="AY15" t="n">
         <v>15</v>
       </c>
       <c r="AZ15" t="n">
+        <v>23</v>
+      </c>
+      <c r="BA15" t="n">
         <v>22</v>
       </c>
-      <c r="BA15" t="n">
-        <v>23</v>
-      </c>
       <c r="BB15" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BC15" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BD15" t="n">
         <v>10</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>3-22-2014-15</t>
+          <t>2015-03-22</t>
         </is>
       </c>
     </row>
@@ -3292,7 +3359,7 @@
         <v>3.6</v>
       </c>
       <c r="AD16" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AE16" t="n">
         <v>3</v>
@@ -3322,22 +3389,22 @@
         <v>29</v>
       </c>
       <c r="AN16" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AO16" t="n">
         <v>7</v>
       </c>
       <c r="AP16" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AQ16" t="n">
         <v>6</v>
       </c>
       <c r="AR16" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AS16" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AT16" t="n">
         <v>20</v>
@@ -3355,7 +3422,7 @@
         <v>24</v>
       </c>
       <c r="AY16" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AZ16" t="n">
         <v>9</v>
@@ -3367,7 +3434,7 @@
         <v>17</v>
       </c>
       <c r="BC16" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BD16" t="n">
         <v>10</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>3-22-2014-15</t>
+          <t>2015-03-22</t>
         </is>
       </c>
     </row>
@@ -3396,16 +3463,16 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E17" t="n">
         <v>32</v>
       </c>
       <c r="F17" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G17" t="n">
-        <v>0.464</v>
+        <v>0.471</v>
       </c>
       <c r="H17" t="n">
         <v>48.1</v>
@@ -3414,10 +3481,10 @@
         <v>35.1</v>
       </c>
       <c r="J17" t="n">
-        <v>76.5</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="K17" t="n">
-        <v>0.458</v>
+        <v>0.459</v>
       </c>
       <c r="L17" t="n">
         <v>6.9</v>
@@ -3426,19 +3493,19 @@
         <v>20.2</v>
       </c>
       <c r="N17" t="n">
-        <v>0.34</v>
+        <v>0.342</v>
       </c>
       <c r="O17" t="n">
-        <v>17.8</v>
+        <v>17.9</v>
       </c>
       <c r="P17" t="n">
-        <v>24</v>
+        <v>24.1</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.741</v>
+        <v>0.743</v>
       </c>
       <c r="R17" t="n">
-        <v>8.9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="S17" t="n">
         <v>30</v>
@@ -3447,7 +3514,7 @@
         <v>38.8</v>
       </c>
       <c r="U17" t="n">
-        <v>20.1</v>
+        <v>20.2</v>
       </c>
       <c r="V17" t="n">
         <v>14.8</v>
@@ -3459,22 +3526,22 @@
         <v>4.4</v>
       </c>
       <c r="Y17" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="Z17" t="n">
-        <v>19.8</v>
+        <v>19.9</v>
       </c>
       <c r="AA17" t="n">
         <v>20.9</v>
       </c>
       <c r="AB17" t="n">
-        <v>94.8</v>
+        <v>95.09999999999999</v>
       </c>
       <c r="AC17" t="n">
-        <v>-2.2</v>
+        <v>-2</v>
       </c>
       <c r="AD17" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="AE17" t="n">
         <v>17</v>
@@ -3495,10 +3562,10 @@
         <v>30</v>
       </c>
       <c r="AK17" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AL17" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AM17" t="n">
         <v>19</v>
@@ -3513,7 +3580,7 @@
         <v>10</v>
       </c>
       <c r="AQ17" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AR17" t="n">
         <v>29</v>
@@ -3537,10 +3604,10 @@
         <v>23</v>
       </c>
       <c r="AY17" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AZ17" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BA17" t="n">
         <v>8</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>3-22-2014-15</t>
+          <t>2015-03-22</t>
         </is>
       </c>
     </row>
@@ -3578,16 +3645,16 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E18" t="n">
         <v>34</v>
       </c>
       <c r="F18" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G18" t="n">
-        <v>0.486</v>
+        <v>0.493</v>
       </c>
       <c r="H18" t="n">
         <v>48.7</v>
@@ -3596,25 +3663,25 @@
         <v>37.4</v>
       </c>
       <c r="J18" t="n">
-        <v>81.8</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="K18" t="n">
-        <v>0.458</v>
+        <v>0.456</v>
       </c>
       <c r="L18" t="n">
         <v>6.8</v>
       </c>
       <c r="M18" t="n">
-        <v>18.4</v>
+        <v>18.5</v>
       </c>
       <c r="N18" t="n">
-        <v>0.369</v>
+        <v>0.37</v>
       </c>
       <c r="O18" t="n">
         <v>16.2</v>
       </c>
       <c r="P18" t="n">
-        <v>21</v>
+        <v>21.1</v>
       </c>
       <c r="Q18" t="n">
         <v>0.768</v>
@@ -3626,13 +3693,13 @@
         <v>31.7</v>
       </c>
       <c r="T18" t="n">
-        <v>42.1</v>
+        <v>42.2</v>
       </c>
       <c r="U18" t="n">
         <v>23.2</v>
       </c>
       <c r="V18" t="n">
-        <v>16.8</v>
+        <v>16.7</v>
       </c>
       <c r="W18" t="n">
         <v>9.4</v>
@@ -3641,22 +3708,22 @@
         <v>4.9</v>
       </c>
       <c r="Y18" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="Z18" t="n">
-        <v>22</v>
+        <v>22.1</v>
       </c>
       <c r="AA18" t="n">
-        <v>20</v>
+        <v>20.1</v>
       </c>
       <c r="AB18" t="n">
-        <v>97.8</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="AC18" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="AD18" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AE18" t="n">
         <v>16</v>
@@ -3671,10 +3738,10 @@
         <v>3</v>
       </c>
       <c r="AI18" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AJ18" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AK18" t="n">
         <v>10</v>
@@ -3683,7 +3750,7 @@
         <v>23</v>
       </c>
       <c r="AM18" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AN18" t="n">
         <v>4</v>
@@ -3692,16 +3759,16 @@
         <v>23</v>
       </c>
       <c r="AP18" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AQ18" t="n">
         <v>10</v>
       </c>
       <c r="AR18" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AS18" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AT18" t="n">
         <v>22</v>
@@ -3710,16 +3777,16 @@
         <v>7</v>
       </c>
       <c r="AV18" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AW18" t="n">
         <v>4</v>
       </c>
       <c r="AX18" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AY18" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AZ18" t="n">
         <v>28</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>3-22-2014-15</t>
+          <t>2015-03-22</t>
         </is>
       </c>
     </row>
@@ -3760,16 +3827,16 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E19" t="n">
         <v>15</v>
       </c>
       <c r="F19" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G19" t="n">
-        <v>0.217</v>
+        <v>0.221</v>
       </c>
       <c r="H19" t="n">
         <v>48.2</v>
@@ -3778,10 +3845,10 @@
         <v>36.7</v>
       </c>
       <c r="J19" t="n">
-        <v>84.09999999999999</v>
+        <v>84.3</v>
       </c>
       <c r="K19" t="n">
-        <v>0.437</v>
+        <v>0.435</v>
       </c>
       <c r="L19" t="n">
         <v>4.9</v>
@@ -3790,28 +3857,28 @@
         <v>14.7</v>
       </c>
       <c r="N19" t="n">
-        <v>0.331</v>
+        <v>0.33</v>
       </c>
       <c r="O19" t="n">
-        <v>19.4</v>
+        <v>19.5</v>
       </c>
       <c r="P19" t="n">
-        <v>25.3</v>
+        <v>25.4</v>
       </c>
       <c r="Q19" t="n">
         <v>0.767</v>
       </c>
       <c r="R19" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="S19" t="n">
         <v>29.7</v>
       </c>
       <c r="T19" t="n">
-        <v>41.7</v>
+        <v>41.9</v>
       </c>
       <c r="U19" t="n">
-        <v>21.9</v>
+        <v>21.8</v>
       </c>
       <c r="V19" t="n">
         <v>15</v>
@@ -3820,25 +3887,25 @@
         <v>8.300000000000001</v>
       </c>
       <c r="X19" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="Y19" t="n">
         <v>5.5</v>
       </c>
       <c r="Z19" t="n">
-        <v>19.2</v>
+        <v>19.3</v>
       </c>
       <c r="AA19" t="n">
-        <v>21.3</v>
+        <v>21.4</v>
       </c>
       <c r="AB19" t="n">
         <v>97.7</v>
       </c>
       <c r="AC19" t="n">
-        <v>-8.1</v>
+        <v>-8</v>
       </c>
       <c r="AD19" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="AE19" t="n">
         <v>29</v>
@@ -3856,7 +3923,7 @@
         <v>22</v>
       </c>
       <c r="AJ19" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK19" t="n">
         <v>24</v>
@@ -3871,7 +3938,7 @@
         <v>26</v>
       </c>
       <c r="AO19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AP19" t="n">
         <v>2</v>
@@ -3880,7 +3947,7 @@
         <v>11</v>
       </c>
       <c r="AR19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AS19" t="n">
         <v>30</v>
@@ -3895,7 +3962,7 @@
         <v>24</v>
       </c>
       <c r="AW19" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AX19" t="n">
         <v>27</v>
@@ -3907,7 +3974,7 @@
         <v>10</v>
       </c>
       <c r="BA19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BB19" t="n">
         <v>22</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>3-22-2014-15</t>
+          <t>2015-03-22</t>
         </is>
       </c>
     </row>
@@ -3945,13 +4012,13 @@
         <v>69</v>
       </c>
       <c r="E20" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F20" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G20" t="n">
-        <v>0.522</v>
+        <v>0.536</v>
       </c>
       <c r="H20" t="n">
         <v>48.3</v>
@@ -3960,49 +4027,49 @@
         <v>37.8</v>
       </c>
       <c r="J20" t="n">
-        <v>82.7</v>
+        <v>83.09999999999999</v>
       </c>
       <c r="K20" t="n">
-        <v>0.457</v>
+        <v>0.455</v>
       </c>
       <c r="L20" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="M20" t="n">
-        <v>19.4</v>
+        <v>19.3</v>
       </c>
       <c r="N20" t="n">
-        <v>0.366</v>
+        <v>0.361</v>
       </c>
       <c r="O20" t="n">
-        <v>16.6</v>
+        <v>16.7</v>
       </c>
       <c r="P20" t="n">
-        <v>21.7</v>
+        <v>21.9</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.768</v>
+        <v>0.763</v>
       </c>
       <c r="R20" t="n">
-        <v>11.4</v>
+        <v>11.6</v>
       </c>
       <c r="S20" t="n">
-        <v>32.1</v>
+        <v>32.2</v>
       </c>
       <c r="T20" t="n">
-        <v>43.5</v>
+        <v>43.8</v>
       </c>
       <c r="U20" t="n">
         <v>22</v>
       </c>
       <c r="V20" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="W20" t="n">
         <v>6.7</v>
       </c>
       <c r="X20" t="n">
-        <v>5.9</v>
+        <v>6.1</v>
       </c>
       <c r="Y20" t="n">
         <v>5.9</v>
@@ -4011,25 +4078,25 @@
         <v>18.7</v>
       </c>
       <c r="AA20" t="n">
-        <v>18.7</v>
+        <v>18.8</v>
       </c>
       <c r="AB20" t="n">
-        <v>99.2</v>
+        <v>99.3</v>
       </c>
       <c r="AC20" t="n">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="AD20" t="n">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="AE20" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AF20" t="n">
         <v>14</v>
       </c>
       <c r="AG20" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AH20" t="n">
         <v>21</v>
@@ -4038,37 +4105,37 @@
         <v>13</v>
       </c>
       <c r="AJ20" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AK20" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AL20" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AM20" t="n">
         <v>23</v>
       </c>
       <c r="AN20" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AO20" t="n">
         <v>19</v>
       </c>
       <c r="AP20" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AQ20" t="n">
+        <v>15</v>
+      </c>
+      <c r="AR20" t="n">
         <v>9</v>
-      </c>
-      <c r="AR20" t="n">
-        <v>10</v>
       </c>
       <c r="AS20" t="n">
         <v>17</v>
       </c>
       <c r="AT20" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AU20" t="n">
         <v>10</v>
@@ -4080,7 +4147,7 @@
         <v>25</v>
       </c>
       <c r="AX20" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AY20" t="n">
         <v>28</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>3-22-2014-15</t>
+          <t>2015-03-22</t>
         </is>
       </c>
     </row>
@@ -4124,16 +4191,16 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E21" t="n">
         <v>14</v>
       </c>
       <c r="F21" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2</v>
+        <v>0.203</v>
       </c>
       <c r="H21" t="n">
         <v>48.5</v>
@@ -4142,7 +4209,7 @@
         <v>35.4</v>
       </c>
       <c r="J21" t="n">
-        <v>82.5</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="K21" t="n">
         <v>0.429</v>
@@ -4154,28 +4221,28 @@
         <v>19.7</v>
       </c>
       <c r="N21" t="n">
-        <v>0.348</v>
+        <v>0.347</v>
       </c>
       <c r="O21" t="n">
         <v>14.6</v>
       </c>
       <c r="P21" t="n">
-        <v>19</v>
+        <v>19.1</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.764</v>
+        <v>0.765</v>
       </c>
       <c r="R21" t="n">
         <v>10.8</v>
       </c>
       <c r="S21" t="n">
-        <v>29.7</v>
+        <v>29.8</v>
       </c>
       <c r="T21" t="n">
-        <v>40.5</v>
+        <v>40.6</v>
       </c>
       <c r="U21" t="n">
-        <v>21.4</v>
+        <v>21.3</v>
       </c>
       <c r="V21" t="n">
         <v>14.3</v>
@@ -4184,7 +4251,7 @@
         <v>7.1</v>
       </c>
       <c r="X21" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="Y21" t="n">
         <v>4.3</v>
@@ -4196,13 +4263,13 @@
         <v>19.1</v>
       </c>
       <c r="AB21" t="n">
-        <v>92.2</v>
+        <v>92.3</v>
       </c>
       <c r="AC21" t="n">
-        <v>-9</v>
+        <v>-8.9</v>
       </c>
       <c r="AD21" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AE21" t="n">
         <v>30</v>
@@ -4214,7 +4281,7 @@
         <v>30</v>
       </c>
       <c r="AH21" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI21" t="n">
         <v>27</v>
@@ -4226,13 +4293,13 @@
         <v>27</v>
       </c>
       <c r="AL21" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AM21" t="n">
         <v>21</v>
       </c>
       <c r="AN21" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AO21" t="n">
         <v>29</v>
@@ -4241,7 +4308,7 @@
         <v>30</v>
       </c>
       <c r="AQ21" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AR21" t="n">
         <v>16</v>
@@ -4250,19 +4317,19 @@
         <v>29</v>
       </c>
       <c r="AT21" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AU21" t="n">
         <v>18</v>
       </c>
       <c r="AV21" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AW21" t="n">
         <v>23</v>
       </c>
       <c r="AX21" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AY21" t="n">
         <v>8</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>3-22-2014-15</t>
+          <t>2015-03-22</t>
         </is>
       </c>
     </row>
@@ -4306,16 +4373,16 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E22" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F22" t="n">
         <v>30</v>
       </c>
       <c r="G22" t="n">
-        <v>0.571</v>
+        <v>0.5649999999999999</v>
       </c>
       <c r="H22" t="n">
         <v>48.4</v>
@@ -4333,37 +4400,37 @@
         <v>7.5</v>
       </c>
       <c r="M22" t="n">
-        <v>22.5</v>
+        <v>22.6</v>
       </c>
       <c r="N22" t="n">
         <v>0.333</v>
       </c>
       <c r="O22" t="n">
-        <v>18.6</v>
+        <v>18.8</v>
       </c>
       <c r="P22" t="n">
-        <v>24.3</v>
+        <v>24.5</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.767</v>
+        <v>0.769</v>
       </c>
       <c r="R22" t="n">
-        <v>12.7</v>
+        <v>12.6</v>
       </c>
       <c r="S22" t="n">
-        <v>35</v>
+        <v>35.1</v>
       </c>
       <c r="T22" t="n">
-        <v>47.7</v>
+        <v>47.6</v>
       </c>
       <c r="U22" t="n">
-        <v>20.8</v>
+        <v>20.7</v>
       </c>
       <c r="V22" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="W22" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="X22" t="n">
         <v>5.9</v>
@@ -4372,37 +4439,37 @@
         <v>4.5</v>
       </c>
       <c r="Z22" t="n">
-        <v>22.3</v>
+        <v>22.4</v>
       </c>
       <c r="AA22" t="n">
-        <v>20.2</v>
+        <v>20.3</v>
       </c>
       <c r="AB22" t="n">
-        <v>103.2</v>
+        <v>103.4</v>
       </c>
       <c r="AC22" t="n">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="AD22" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AE22" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF22" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AG22" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH22" t="n">
         <v>13</v>
       </c>
       <c r="AI22" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AJ22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AK22" t="n">
         <v>19</v>
@@ -4420,10 +4487,10 @@
         <v>5</v>
       </c>
       <c r="AP22" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AQ22" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AR22" t="n">
         <v>2</v>
@@ -4441,25 +4508,25 @@
         <v>22</v>
       </c>
       <c r="AW22" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AX22" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AY22" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AZ22" t="n">
         <v>29</v>
       </c>
       <c r="BA22" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BB22" t="n">
         <v>7</v>
       </c>
       <c r="BC22" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BD22" t="n">
         <v>10</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>3-22-2014-15</t>
+          <t>2015-03-22</t>
         </is>
       </c>
     </row>
@@ -4503,22 +4570,22 @@
         <v>48.2</v>
       </c>
       <c r="I23" t="n">
-        <v>37.6</v>
+        <v>37.5</v>
       </c>
       <c r="J23" t="n">
         <v>82.5</v>
       </c>
       <c r="K23" t="n">
-        <v>0.455</v>
+        <v>0.454</v>
       </c>
       <c r="L23" t="n">
         <v>6.9</v>
       </c>
       <c r="M23" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="N23" t="n">
-        <v>0.353</v>
+        <v>0.355</v>
       </c>
       <c r="O23" t="n">
         <v>14.2</v>
@@ -4527,19 +4594,19 @@
         <v>19.5</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.728</v>
+        <v>0.727</v>
       </c>
       <c r="R23" t="n">
-        <v>9.6</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="S23" t="n">
-        <v>31.5</v>
+        <v>31.7</v>
       </c>
       <c r="T23" t="n">
-        <v>41.1</v>
+        <v>41.4</v>
       </c>
       <c r="U23" t="n">
-        <v>20.6</v>
+        <v>20.5</v>
       </c>
       <c r="V23" t="n">
         <v>14.8</v>
@@ -4548,25 +4615,25 @@
         <v>7.9</v>
       </c>
       <c r="X23" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="Y23" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="Z23" t="n">
         <v>21.1</v>
       </c>
       <c r="AA23" t="n">
-        <v>18.3</v>
+        <v>18.2</v>
       </c>
       <c r="AB23" t="n">
-        <v>96.3</v>
+        <v>96</v>
       </c>
       <c r="AC23" t="n">
         <v>-5.8</v>
       </c>
       <c r="AD23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE23" t="n">
         <v>26</v>
@@ -4611,13 +4678,13 @@
         <v>27</v>
       </c>
       <c r="AS23" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AT23" t="n">
         <v>27</v>
       </c>
       <c r="AU23" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AV23" t="n">
         <v>21</v>
@@ -4626,13 +4693,13 @@
         <v>13</v>
       </c>
       <c r="AX23" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AY23" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AZ23" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BA23" t="n">
         <v>30</v>
@@ -4641,7 +4708,7 @@
         <v>25</v>
       </c>
       <c r="BC23" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BD23" t="n">
         <v>10</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>3-22-2014-15</t>
+          <t>2015-03-22</t>
         </is>
       </c>
     </row>
@@ -4670,28 +4737,28 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E24" t="n">
         <v>17</v>
       </c>
       <c r="F24" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G24" t="n">
-        <v>0.243</v>
+        <v>0.246</v>
       </c>
       <c r="H24" t="n">
         <v>48.3</v>
       </c>
       <c r="I24" t="n">
-        <v>33.4</v>
+        <v>33.5</v>
       </c>
       <c r="J24" t="n">
-        <v>82</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="K24" t="n">
-        <v>0.408</v>
+        <v>0.409</v>
       </c>
       <c r="L24" t="n">
         <v>8.1</v>
@@ -4706,7 +4773,7 @@
         <v>16</v>
       </c>
       <c r="P24" t="n">
-        <v>23.7</v>
+        <v>23.8</v>
       </c>
       <c r="Q24" t="n">
         <v>0.674</v>
@@ -4715,7 +4782,7 @@
         <v>11.7</v>
       </c>
       <c r="S24" t="n">
-        <v>31.2</v>
+        <v>31.3</v>
       </c>
       <c r="T24" t="n">
         <v>43</v>
@@ -4724,16 +4791,16 @@
         <v>20.7</v>
       </c>
       <c r="V24" t="n">
-        <v>18</v>
+        <v>18.1</v>
       </c>
       <c r="W24" t="n">
-        <v>9.699999999999999</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="X24" t="n">
         <v>6.1</v>
       </c>
       <c r="Y24" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="Z24" t="n">
         <v>21.3</v>
@@ -4742,16 +4809,16 @@
         <v>20.2</v>
       </c>
       <c r="AB24" t="n">
-        <v>91</v>
+        <v>91.09999999999999</v>
       </c>
       <c r="AC24" t="n">
-        <v>-9.300000000000001</v>
+        <v>-9.199999999999999</v>
       </c>
       <c r="AD24" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AE24" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AF24" t="n">
         <v>28</v>
@@ -4760,19 +4827,19 @@
         <v>28</v>
       </c>
       <c r="AH24" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI24" t="n">
         <v>30</v>
       </c>
       <c r="AJ24" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AK24" t="n">
         <v>30</v>
       </c>
       <c r="AL24" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AM24" t="n">
         <v>9</v>
@@ -4781,7 +4848,7 @@
         <v>29</v>
       </c>
       <c r="AO24" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AP24" t="n">
         <v>11</v>
@@ -4808,13 +4875,13 @@
         <v>1</v>
       </c>
       <c r="AX24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AY24" t="n">
         <v>26</v>
       </c>
       <c r="AZ24" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BA24" t="n">
         <v>18</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>3-22-2014-15</t>
+          <t>2015-03-22</t>
         </is>
       </c>
     </row>
@@ -4852,16 +4919,16 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E25" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F25" t="n">
         <v>33</v>
       </c>
       <c r="G25" t="n">
-        <v>0.535</v>
+        <v>0.529</v>
       </c>
       <c r="H25" t="n">
         <v>48.6</v>
@@ -4870,19 +4937,19 @@
         <v>39.3</v>
       </c>
       <c r="J25" t="n">
-        <v>86.2</v>
+        <v>86.40000000000001</v>
       </c>
       <c r="K25" t="n">
-        <v>0.456</v>
+        <v>0.455</v>
       </c>
       <c r="L25" t="n">
-        <v>8.9</v>
+        <v>9</v>
       </c>
       <c r="M25" t="n">
-        <v>25.6</v>
+        <v>25.7</v>
       </c>
       <c r="N25" t="n">
-        <v>0.348</v>
+        <v>0.349</v>
       </c>
       <c r="O25" t="n">
         <v>16.7</v>
@@ -4891,22 +4958,22 @@
         <v>21.8</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.765</v>
+        <v>0.767</v>
       </c>
       <c r="R25" t="n">
         <v>11.1</v>
       </c>
       <c r="S25" t="n">
-        <v>32.4</v>
+        <v>32.3</v>
       </c>
       <c r="T25" t="n">
         <v>43.5</v>
       </c>
       <c r="U25" t="n">
-        <v>20.5</v>
+        <v>20.4</v>
       </c>
       <c r="V25" t="n">
-        <v>15.3</v>
+        <v>15.2</v>
       </c>
       <c r="W25" t="n">
         <v>8.699999999999999</v>
@@ -4924,22 +4991,22 @@
         <v>20.6</v>
       </c>
       <c r="AB25" t="n">
-        <v>104.2</v>
+        <v>104.3</v>
       </c>
       <c r="AC25" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="AD25" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AE25" t="n">
         <v>14</v>
       </c>
       <c r="AF25" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AG25" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AH25" t="n">
         <v>6</v>
@@ -4948,10 +5015,10 @@
         <v>3</v>
       </c>
       <c r="AJ25" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AK25" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AL25" t="n">
         <v>8</v>
@@ -4966,16 +5033,16 @@
         <v>17</v>
       </c>
       <c r="AP25" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AQ25" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AR25" t="n">
         <v>12</v>
       </c>
       <c r="AS25" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AT25" t="n">
         <v>16</v>
@@ -5002,7 +5069,7 @@
         <v>12</v>
       </c>
       <c r="BB25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BC25" t="n">
         <v>14</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>3-22-2014-15</t>
+          <t>2015-03-22</t>
         </is>
       </c>
     </row>
@@ -5112,7 +5179,7 @@
         <v>4.7</v>
       </c>
       <c r="AD26" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AE26" t="n">
         <v>7</v>
@@ -5121,10 +5188,10 @@
         <v>5</v>
       </c>
       <c r="AG26" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AH26" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AI26" t="n">
         <v>9</v>
@@ -5136,7 +5203,7 @@
         <v>18</v>
       </c>
       <c r="AL26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AM26" t="n">
         <v>2</v>
@@ -5169,7 +5236,7 @@
         <v>9</v>
       </c>
       <c r="AW26" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AX26" t="n">
         <v>15</v>
@@ -5187,7 +5254,7 @@
         <v>10</v>
       </c>
       <c r="BC26" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BD26" t="n">
         <v>10</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>3-22-2014-15</t>
+          <t>2015-03-22</t>
         </is>
       </c>
     </row>
@@ -5216,16 +5283,16 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E27" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F27" t="n">
         <v>45</v>
       </c>
       <c r="G27" t="n">
-        <v>0.348</v>
+        <v>0.338</v>
       </c>
       <c r="H27" t="n">
         <v>48.5</v>
@@ -5237,7 +5304,7 @@
         <v>80.59999999999999</v>
       </c>
       <c r="K27" t="n">
-        <v>0.452</v>
+        <v>0.451</v>
       </c>
       <c r="L27" t="n">
         <v>5.4</v>
@@ -5246,25 +5313,25 @@
         <v>16.2</v>
       </c>
       <c r="N27" t="n">
-        <v>0.335</v>
+        <v>0.333</v>
       </c>
       <c r="O27" t="n">
         <v>22.9</v>
       </c>
       <c r="P27" t="n">
-        <v>29.4</v>
+        <v>29.5</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.778</v>
+        <v>0.777</v>
       </c>
       <c r="R27" t="n">
-        <v>11</v>
+        <v>11.1</v>
       </c>
       <c r="S27" t="n">
-        <v>33.5</v>
+        <v>33.6</v>
       </c>
       <c r="T27" t="n">
-        <v>44.5</v>
+        <v>44.6</v>
       </c>
       <c r="U27" t="n">
         <v>19.9</v>
@@ -5273,7 +5340,7 @@
         <v>16.6</v>
       </c>
       <c r="W27" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="X27" t="n">
         <v>3.8</v>
@@ -5282,19 +5349,19 @@
         <v>6.1</v>
       </c>
       <c r="Z27" t="n">
-        <v>20.9</v>
+        <v>21</v>
       </c>
       <c r="AA27" t="n">
-        <v>24.1</v>
+        <v>24.2</v>
       </c>
       <c r="AB27" t="n">
-        <v>101.1</v>
+        <v>101</v>
       </c>
       <c r="AC27" t="n">
-        <v>-3.9</v>
+        <v>-4.3</v>
       </c>
       <c r="AD27" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="AE27" t="n">
         <v>25</v>
@@ -5306,7 +5373,7 @@
         <v>25</v>
       </c>
       <c r="AH27" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AI27" t="n">
         <v>25</v>
@@ -5342,7 +5409,7 @@
         <v>8</v>
       </c>
       <c r="AT27" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AU27" t="n">
         <v>30</v>
@@ -5351,7 +5418,7 @@
         <v>27</v>
       </c>
       <c r="AW27" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AX27" t="n">
         <v>28</v>
@@ -5360,7 +5427,7 @@
         <v>29</v>
       </c>
       <c r="AZ27" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BA27" t="n">
         <v>1</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>3-22-2014-15</t>
+          <t>2015-03-22</t>
         </is>
       </c>
     </row>
@@ -5413,43 +5480,43 @@
         <v>48.8</v>
       </c>
       <c r="I28" t="n">
-        <v>38.6</v>
+        <v>38.5</v>
       </c>
       <c r="J28" t="n">
-        <v>83.8</v>
+        <v>83.59999999999999</v>
       </c>
       <c r="K28" t="n">
-        <v>0.461</v>
+        <v>0.46</v>
       </c>
       <c r="L28" t="n">
-        <v>8.199999999999999</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="M28" t="n">
-        <v>22.6</v>
+        <v>22.7</v>
       </c>
       <c r="N28" t="n">
-        <v>0.362</v>
+        <v>0.364</v>
       </c>
       <c r="O28" t="n">
-        <v>17.2</v>
+        <v>17.1</v>
       </c>
       <c r="P28" t="n">
         <v>22.1</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.776</v>
+        <v>0.775</v>
       </c>
       <c r="R28" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="S28" t="n">
-        <v>33.7</v>
+        <v>33.6</v>
       </c>
       <c r="T28" t="n">
-        <v>43.5</v>
+        <v>43.4</v>
       </c>
       <c r="U28" t="n">
-        <v>24.3</v>
+        <v>24.2</v>
       </c>
       <c r="V28" t="n">
         <v>13.9</v>
@@ -5464,19 +5531,19 @@
         <v>4.6</v>
       </c>
       <c r="Z28" t="n">
-        <v>19.3</v>
+        <v>19.4</v>
       </c>
       <c r="AA28" t="n">
-        <v>20</v>
+        <v>20.1</v>
       </c>
       <c r="AB28" t="n">
-        <v>102.6</v>
+        <v>102.4</v>
       </c>
       <c r="AC28" t="n">
-        <v>4.8</v>
+        <v>4.5</v>
       </c>
       <c r="AD28" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AE28" t="n">
         <v>9</v>
@@ -5491,13 +5558,13 @@
         <v>1</v>
       </c>
       <c r="AI28" t="n">
+        <v>7</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>14</v>
+      </c>
+      <c r="AK28" t="n">
         <v>6</v>
-      </c>
-      <c r="AJ28" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK28" t="n">
-        <v>5</v>
       </c>
       <c r="AL28" t="n">
         <v>11</v>
@@ -5506,13 +5573,13 @@
         <v>14</v>
       </c>
       <c r="AN28" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AO28" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AP28" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AQ28" t="n">
         <v>7</v>
@@ -5530,7 +5597,7 @@
         <v>5</v>
       </c>
       <c r="AV28" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AW28" t="n">
         <v>12</v>
@@ -5551,7 +5618,7 @@
         <v>11</v>
       </c>
       <c r="BC28" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BD28" t="n">
         <v>10</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>3-22-2014-15</t>
+          <t>2015-03-22</t>
         </is>
       </c>
     </row>
@@ -5580,16 +5647,16 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E29" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F29" t="n">
         <v>28</v>
       </c>
       <c r="G29" t="n">
-        <v>0.6</v>
+        <v>0.594</v>
       </c>
       <c r="H29" t="n">
         <v>48.4</v>
@@ -5598,22 +5665,22 @@
         <v>38</v>
       </c>
       <c r="J29" t="n">
-        <v>83.8</v>
+        <v>83.90000000000001</v>
       </c>
       <c r="K29" t="n">
-        <v>0.453</v>
+        <v>0.452</v>
       </c>
       <c r="L29" t="n">
-        <v>8.800000000000001</v>
+        <v>8.9</v>
       </c>
       <c r="M29" t="n">
-        <v>25.1</v>
+        <v>25.3</v>
       </c>
       <c r="N29" t="n">
         <v>0.351</v>
       </c>
       <c r="O29" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="P29" t="n">
         <v>24.8</v>
@@ -5625,7 +5692,7 @@
         <v>10.8</v>
       </c>
       <c r="S29" t="n">
-        <v>30.7</v>
+        <v>30.6</v>
       </c>
       <c r="T29" t="n">
         <v>41.5</v>
@@ -5634,10 +5701,10 @@
         <v>20.8</v>
       </c>
       <c r="V29" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="W29" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="X29" t="n">
         <v>4.4</v>
@@ -5646,7 +5713,7 @@
         <v>5.2</v>
       </c>
       <c r="Z29" t="n">
-        <v>21</v>
+        <v>21.1</v>
       </c>
       <c r="AA29" t="n">
         <v>20.6</v>
@@ -5655,13 +5722,13 @@
         <v>104.3</v>
       </c>
       <c r="AC29" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="AD29" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AE29" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF29" t="n">
         <v>10</v>
@@ -5676,7 +5743,7 @@
         <v>10</v>
       </c>
       <c r="AJ29" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AK29" t="n">
         <v>14</v>
@@ -5691,13 +5758,13 @@
         <v>13</v>
       </c>
       <c r="AO29" t="n">
+        <v>4</v>
+      </c>
+      <c r="AP29" t="n">
+        <v>5</v>
+      </c>
+      <c r="AQ29" t="n">
         <v>3</v>
-      </c>
-      <c r="AP29" t="n">
-        <v>4</v>
-      </c>
-      <c r="AQ29" t="n">
-        <v>2</v>
       </c>
       <c r="AR29" t="n">
         <v>15</v>
@@ -5712,10 +5779,10 @@
         <v>21</v>
       </c>
       <c r="AV29" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AW29" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AX29" t="n">
         <v>22</v>
@@ -5724,16 +5791,16 @@
         <v>19</v>
       </c>
       <c r="AZ29" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="BA29" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BB29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BC29" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BD29" t="n">
         <v>10</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>3-22-2014-15</t>
+          <t>2015-03-22</t>
         </is>
       </c>
     </row>
@@ -5840,7 +5907,7 @@
         <v>-0.2</v>
       </c>
       <c r="AD30" t="n">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="AE30" t="n">
         <v>18</v>
@@ -5870,13 +5937,13 @@
         <v>17</v>
       </c>
       <c r="AN30" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AO30" t="n">
         <v>16</v>
       </c>
       <c r="AP30" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AQ30" t="n">
         <v>26</v>
@@ -5888,19 +5955,19 @@
         <v>18</v>
       </c>
       <c r="AT30" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AU30" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AV30" t="n">
         <v>26</v>
       </c>
       <c r="AW30" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AX30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AY30" t="n">
         <v>12</v>
@@ -5912,7 +5979,7 @@
         <v>24</v>
       </c>
       <c r="BB30" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BC30" t="n">
         <v>17</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>3-22-2014-15</t>
+          <t>2015-03-22</t>
         </is>
       </c>
     </row>
@@ -5944,28 +6011,28 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E31" t="n">
         <v>40</v>
       </c>
       <c r="F31" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G31" t="n">
-        <v>0.571</v>
+        <v>0.58</v>
       </c>
       <c r="H31" t="n">
         <v>48.4</v>
       </c>
       <c r="I31" t="n">
-        <v>38.3</v>
+        <v>38.4</v>
       </c>
       <c r="J31" t="n">
-        <v>82.3</v>
+        <v>82.2</v>
       </c>
       <c r="K31" t="n">
-        <v>0.466</v>
+        <v>0.467</v>
       </c>
       <c r="L31" t="n">
         <v>6</v>
@@ -5974,13 +6041,13 @@
         <v>16.7</v>
       </c>
       <c r="N31" t="n">
-        <v>0.359</v>
+        <v>0.362</v>
       </c>
       <c r="O31" t="n">
         <v>15.8</v>
       </c>
       <c r="P31" t="n">
-        <v>21.2</v>
+        <v>21.3</v>
       </c>
       <c r="Q31" t="n">
         <v>0.744</v>
@@ -5989,13 +6056,13 @@
         <v>10.4</v>
       </c>
       <c r="S31" t="n">
-        <v>33.5</v>
+        <v>33.6</v>
       </c>
       <c r="T31" t="n">
         <v>43.9</v>
       </c>
       <c r="U31" t="n">
-        <v>24</v>
+        <v>24.1</v>
       </c>
       <c r="V31" t="n">
         <v>15</v>
@@ -6007,7 +6074,7 @@
         <v>4.6</v>
       </c>
       <c r="Y31" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="Z31" t="n">
         <v>21</v>
@@ -6016,19 +6083,19 @@
         <v>19.8</v>
       </c>
       <c r="AB31" t="n">
-        <v>98.5</v>
+        <v>98.7</v>
       </c>
       <c r="AC31" t="n">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="AD31" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AE31" t="n">
         <v>12</v>
       </c>
       <c r="AF31" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AG31" t="n">
         <v>12</v>
@@ -6040,7 +6107,7 @@
         <v>8</v>
       </c>
       <c r="AJ31" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AK31" t="n">
         <v>3</v>
@@ -6052,7 +6119,7 @@
         <v>27</v>
       </c>
       <c r="AN31" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AO31" t="n">
         <v>27</v>
@@ -6064,13 +6131,13 @@
         <v>20</v>
       </c>
       <c r="AR31" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AS31" t="n">
         <v>9</v>
       </c>
       <c r="AT31" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AU31" t="n">
         <v>6</v>
@@ -6079,13 +6146,13 @@
         <v>23</v>
       </c>
       <c r="AW31" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AX31" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AY31" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AZ31" t="n">
         <v>18</v>
@@ -6094,7 +6161,7 @@
         <v>21</v>
       </c>
       <c r="BB31" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BC31" t="n">
         <v>13</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>3-22-2014-15</t>
+          <t>2015-03-22</t>
         </is>
       </c>
     </row>
